--- a/jauswertung-misc/src/test/resources/rec-werte/Rekordwerte 2025.xlsx
+++ b/jauswertung-misc/src/test/resources/rec-werte/Rekordwerte 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-misc\src\test\resources\rec-werte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dlrgorg.sharepoint.com/sites/rettsport.bundesverband/Shared Documents/General/Rec-Werte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C3E08-75A8-4763-B1D5-50D76549D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AC8D2DC9-5C27-40DF-A30E-09B90BAA963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8C97843-EE09-46D9-BBA1-7AB6AAA244CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="239">
   <si>
     <t>Wettkampf</t>
   </si>
@@ -594,9 +594,6 @@
     <t>JEM/EM-Q2021</t>
   </si>
   <si>
-    <t>Rekordwerte für das Wettkampfjahr 2023</t>
-  </si>
-  <si>
     <t>DMM2022</t>
   </si>
   <si>
@@ -735,13 +732,34 @@
     <t>Schulz, Holger</t>
   </si>
   <si>
-    <t>Härter, Alexandra</t>
-  </si>
-  <si>
     <t>Andrzejczak, Dariusz</t>
   </si>
   <si>
     <t>Merschbrock, Brigitte</t>
+  </si>
+  <si>
+    <t>Rekordwerte für das Wettkampfjahr 2025</t>
+  </si>
+  <si>
+    <t>DMM2024</t>
+  </si>
+  <si>
+    <t>Halle-Saalekreis 1</t>
+  </si>
+  <si>
+    <t>Baumann, Leo Ilias</t>
+  </si>
+  <si>
+    <t>DP2024</t>
+  </si>
+  <si>
+    <t>JEM2024</t>
+  </si>
+  <si>
+    <t>WM2024</t>
+  </si>
+  <si>
+    <t>SP2024</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1014,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="61">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1036,6 +1054,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1773,10 +1798,10 @@
   </sheetPr>
   <dimension ref="A1:AD144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -1816,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -1826,7 +1851,7 @@
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="J1" s="48" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
@@ -1924,7 +1949,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>38</v>
@@ -1936,18 +1961,18 @@
         <v>7</v>
       </c>
       <c r="E3" s="26">
-        <v>1.7008101851851852E-3</v>
+        <v>1.6721064814814814E-3</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G34" si="0">E3*24*60*60</f>
-        <v>146.94999999999999</v>
+        <v>144.47</v>
       </c>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
@@ -1962,7 +1987,7 @@
         <v>1.7008101851851852E-3</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P3" s="22">
         <f t="shared" ref="P3:P25" si="1">N3*24*60*60</f>
@@ -1971,7 +1996,7 @@
       <c r="Q3" s="8"/>
       <c r="S3" s="8" t="b">
         <f t="shared" ref="S3:S34" si="2">EXACT(A3,J3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="b">
         <f t="shared" ref="T3:T34" si="3">EXACT(B3,K3)</f>
@@ -1987,15 +2012,15 @@
       </c>
       <c r="W3" s="8" t="b">
         <f t="shared" ref="W3:W34" si="6">EXACT(E3,N3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="8" t="b">
         <f t="shared" ref="X3:Z18" si="7">EXACT(F3,O3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="8" t="b">
         <f t="shared" si="7"/>
@@ -2007,12 +2032,12 @@
       </c>
       <c r="AB3" s="8" t="b">
         <f t="shared" ref="AB3:AB66" si="9">IF(AND(S3,W3,X3),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="8"/>
       <c r="AD3" s="18">
         <f>(P3-G3)/P3</f>
-        <v>0</v>
+        <v>1.6876488601565091E-2</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
@@ -2296,7 +2321,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>38</v>
@@ -2311,7 +2336,7 @@
         <v>1.5877314814814814E-3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
@@ -2319,7 +2344,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -2334,7 +2359,7 @@
         <v>1.5877314814814814E-3</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="1"/>
@@ -2482,7 +2507,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>38</v>
@@ -2497,7 +2522,7 @@
         <v>8.1157407407407404E-4</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
@@ -2505,7 +2530,7 @@
       </c>
       <c r="H9" s="9"/>
       <c r="J9" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>38</v>
@@ -2520,7 +2545,7 @@
         <v>8.1157407407407404E-4</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P9" s="22">
         <f t="shared" si="1"/>
@@ -2668,7 +2693,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>39</v>
@@ -2683,7 +2708,7 @@
         <v>1.5011574074074074E-3</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="0"/>
@@ -2691,7 +2716,7 @@
       </c>
       <c r="H11" s="9"/>
       <c r="J11" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>39</v>
@@ -2706,7 +2731,7 @@
         <v>1.5011574074074074E-3</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P11" s="22">
         <f t="shared" si="1"/>
@@ -2761,7 +2786,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>39</v>
@@ -2784,7 +2809,7 @@
       </c>
       <c r="H12" s="9"/>
       <c r="J12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>39</v>
@@ -2854,7 +2879,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>39</v>
@@ -2869,7 +2894,7 @@
         <v>1.373611111111111E-3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
@@ -2877,7 +2902,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="J13" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>39</v>
@@ -2892,7 +2917,7 @@
         <v>1.373611111111111E-3</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="1"/>
@@ -2947,7 +2972,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>39</v>
@@ -2959,18 +2984,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="26">
-        <v>1.7204861111111112E-3</v>
+        <v>1.7005787037037037E-3</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>148.65</v>
+        <v>146.92999999999998</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>39</v>
@@ -2994,7 +3019,7 @@
       <c r="Q14" s="8"/>
       <c r="S14" s="8" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="b">
         <f t="shared" si="3"/>
@@ -3010,15 +3035,15 @@
       </c>
       <c r="W14" s="8" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="8" t="b">
         <f t="shared" si="7"/>
@@ -3030,12 +3055,12 @@
       </c>
       <c r="AB14" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="8"/>
       <c r="AD14" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.1570803901782894E-2</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
@@ -3133,7 +3158,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>39</v>
@@ -3156,7 +3181,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="J16" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>39</v>
@@ -3226,7 +3251,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>39</v>
@@ -3249,7 +3274,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="J17" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>39</v>
@@ -3319,7 +3344,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>39</v>
@@ -3342,7 +3367,7 @@
       </c>
       <c r="H18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>39</v>
@@ -3508,7 +3533,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>40</v>
@@ -3520,14 +3545,14 @@
         <v>8</v>
       </c>
       <c r="E20" s="26">
-        <v>1.1140046296296297E-3</v>
+        <v>1.0876157407407408E-3</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>93.97</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="8" t="s">
@@ -3555,7 +3580,7 @@
       <c r="Q20" s="8"/>
       <c r="S20" s="8" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="b">
         <f t="shared" si="3"/>
@@ -3571,15 +3596,15 @@
       </c>
       <c r="W20" s="8" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="8" t="b">
         <f t="shared" si="11"/>
@@ -3591,7 +3616,7 @@
       </c>
       <c r="AB20" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="8" t="b">
         <f t="shared" si="12"/>
@@ -3599,7 +3624,7 @@
       </c>
       <c r="AD20" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.3688311688311699E-2</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -3700,7 +3725,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>40</v>
@@ -3712,18 +3737,18 @@
         <v>10</v>
       </c>
       <c r="E22" s="26">
-        <v>1.659837962962963E-3</v>
+        <v>1.6106481481481482E-3</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
-        <v>143.41000000000003</v>
+        <v>139.16</v>
       </c>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>40</v>
@@ -3738,7 +3763,7 @@
         <v>1.659837962962963E-3</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="1"/>
@@ -3747,7 +3772,7 @@
       <c r="Q22" s="8"/>
       <c r="S22" s="8" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="b">
         <f t="shared" si="3"/>
@@ -3763,15 +3788,15 @@
       </c>
       <c r="W22" s="8" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="8" t="b">
         <f t="shared" si="11"/>
@@ -3783,7 +3808,7 @@
       </c>
       <c r="AB22" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="8" t="b">
         <f t="shared" si="12"/>
@@ -3791,7 +3816,7 @@
       </c>
       <c r="AD22" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.9635311345094676E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
@@ -4084,7 +4109,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>40</v>
@@ -4096,18 +4121,18 @@
         <v>10</v>
       </c>
       <c r="E26" s="26">
-        <v>1.3912037037037037E-3</v>
+        <v>1.3900462962962963E-3</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="0"/>
-        <v>120.2</v>
+        <v>120.10000000000002</v>
       </c>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>40</v>
@@ -4131,7 +4156,7 @@
       <c r="Q26" s="8"/>
       <c r="S26" s="8" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8" t="b">
         <f t="shared" si="3"/>
@@ -4147,15 +4172,15 @@
       </c>
       <c r="W26" s="8" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="8" t="b">
         <f t="shared" si="11"/>
@@ -4167,7 +4192,7 @@
       </c>
       <c r="AB26" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="8" t="b">
         <f t="shared" si="12"/>
@@ -4175,7 +4200,7 @@
       </c>
       <c r="AD26" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.3194675540748837E-4</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
@@ -4276,7 +4301,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>66</v>
@@ -4287,19 +4312,19 @@
       <c r="D28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="26">
-        <v>9.7789351851851835E-4</v>
+      <c r="E28" s="23">
+        <v>9.7789351851851856E-4</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="0"/>
-        <v>84.489999999999981</v>
+        <v>84.490000000000009</v>
       </c>
       <c r="H28" s="9"/>
       <c r="J28" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>66</v>
@@ -4311,14 +4336,14 @@
         <v>8</v>
       </c>
       <c r="N28" s="23">
-        <v>9.7789351851851835E-4</v>
+        <v>9.7789351851851856E-4</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="13"/>
-        <v>84.489999999999981</v>
+        <v>84.490000000000009</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="S28" s="8" t="b">
@@ -4372,7 +4397,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>66</v>
@@ -4395,7 +4420,7 @@
       </c>
       <c r="H29" s="9"/>
       <c r="J29" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>66</v>
@@ -4468,7 +4493,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>66</v>
@@ -4483,7 +4508,7 @@
         <v>1.5387731481481481E-3</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="0"/>
@@ -4491,7 +4516,7 @@
       </c>
       <c r="H30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>66</v>
@@ -4506,7 +4531,7 @@
         <v>1.5387731481481481E-3</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="13"/>
@@ -4852,7 +4877,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>66</v>
@@ -4875,7 +4900,7 @@
       </c>
       <c r="H34" s="9"/>
       <c r="J34" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>66</v>
@@ -4948,7 +4973,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>41</v>
@@ -4971,7 +4996,7 @@
       </c>
       <c r="H35" s="9"/>
       <c r="J35" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>41</v>
@@ -5044,7 +5069,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>41</v>
@@ -5056,18 +5081,18 @@
         <v>8</v>
       </c>
       <c r="E36" s="26">
-        <v>8.9305555555555557E-4</v>
+        <v>8.6481481481481479E-4</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="15"/>
-        <v>77.16</v>
+        <v>74.72</v>
       </c>
       <c r="H36" s="9"/>
       <c r="J36" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>41</v>
@@ -5091,7 +5116,7 @@
       <c r="Q36" s="8"/>
       <c r="S36" s="8" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="8" t="b">
         <f t="shared" si="17"/>
@@ -5107,7 +5132,7 @@
       </c>
       <c r="W36" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="8" t="b">
         <f t="shared" si="11"/>
@@ -5115,7 +5140,7 @@
       </c>
       <c r="Y36" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="8" t="b">
         <f t="shared" si="11"/>
@@ -5127,7 +5152,7 @@
       </c>
       <c r="AB36" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="8" t="b">
         <f t="shared" si="14"/>
@@ -5135,12 +5160,12 @@
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.1622602384655231E-2</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>41</v>
@@ -5163,7 +5188,7 @@
       </c>
       <c r="H37" s="9"/>
       <c r="J37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>41</v>
@@ -5236,7 +5261,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>41</v>
@@ -5248,18 +5273,18 @@
         <v>10</v>
       </c>
       <c r="E38" s="26">
-        <v>1.4372685185185185E-3</v>
+        <v>1.366087962962963E-3</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="15"/>
-        <v>124.17999999999999</v>
+        <v>118.03</v>
       </c>
       <c r="H38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>41</v>
@@ -5283,7 +5308,7 @@
       <c r="Q38" s="8"/>
       <c r="S38" s="8" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="8" t="b">
         <f t="shared" si="17"/>
@@ -5299,7 +5324,7 @@
       </c>
       <c r="W38" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="8" t="b">
         <f t="shared" si="11"/>
@@ -5307,7 +5332,7 @@
       </c>
       <c r="Y38" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="8" t="b">
         <f t="shared" si="11"/>
@@ -5319,7 +5344,7 @@
       </c>
       <c r="AB38" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="8" t="b">
         <f t="shared" si="14"/>
@@ -5327,7 +5352,7 @@
       </c>
       <c r="AD38" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.9524883234015077E-2</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
@@ -5620,7 +5645,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>41</v>
@@ -5632,18 +5657,18 @@
         <v>10</v>
       </c>
       <c r="E42" s="26">
-        <v>1.2432870370370371E-3</v>
+        <v>1.1766203703703704E-3</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="15"/>
-        <v>107.42</v>
+        <v>101.66000000000001</v>
       </c>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>41</v>
@@ -5658,7 +5683,7 @@
         <v>1.2432870370370371E-3</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P42" s="22">
         <f t="shared" si="13"/>
@@ -5667,7 +5692,7 @@
       <c r="Q42" s="8"/>
       <c r="S42" s="8" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="b">
         <f t="shared" si="17"/>
@@ -5683,15 +5708,15 @@
       </c>
       <c r="W42" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="8" t="b">
         <f t="shared" si="11"/>
@@ -5703,7 +5728,7 @@
       </c>
       <c r="AB42" s="8" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="8" t="b">
         <f t="shared" si="14"/>
@@ -5711,12 +5736,12 @@
       </c>
       <c r="AD42" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.3621299571774257E-2</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>55</v>
@@ -6004,7 +6029,7 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>55</v>
@@ -6016,20 +6041,20 @@
         <v>10</v>
       </c>
       <c r="E46" s="26">
-        <v>1.5979166666666668E-3</v>
+        <v>1.5780092592592593E-3</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="15"/>
-        <v>138.06</v>
+        <v>136.34</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>55</v>
@@ -6044,7 +6069,7 @@
         <v>1.6296296296296295E-3</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P46" s="22">
         <f t="shared" si="13"/>
@@ -6075,7 +6100,7 @@
       </c>
       <c r="X46" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46" s="8" t="b">
         <f t="shared" si="11"/>
@@ -6095,11 +6120,11 @@
       </c>
       <c r="AC46" s="8" t="b">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="18">
         <f t="shared" si="10"/>
-        <v>1.9460227272727337E-2</v>
+        <v>3.167613636363642E-2</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.35">
@@ -6400,7 +6425,7 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>55</v>
@@ -6412,18 +6437,20 @@
         <v>10</v>
       </c>
       <c r="E50" s="26">
-        <v>1.3597222222222222E-3</v>
+        <v>1.3480324074074074E-3</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="15"/>
-        <v>117.48</v>
-      </c>
-      <c r="H50" s="8"/>
+        <v>116.47</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J50" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>55</v>
@@ -6438,7 +6465,7 @@
         <v>1.4027777777777777E-3</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P50" s="22">
         <f t="shared" si="13"/>
@@ -6467,7 +6494,7 @@
       </c>
       <c r="X50" s="8" t="b">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="8" t="b">
         <f t="shared" si="11"/>
@@ -6475,7 +6502,7 @@
       </c>
       <c r="Z50" s="8" t="b">
         <f t="shared" ref="Z50:Z94" si="22">EXACT(H50,Q50)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="8" t="b">
         <f t="shared" si="8"/>
@@ -6487,11 +6514,11 @@
       </c>
       <c r="AC50" s="8" t="b">
         <f>IF(E50&gt;E58,FALSE,IF(H50=B58,E50=E58,OR(H50="",H50="Referenzwert")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="18">
         <f t="shared" si="10"/>
-        <v>3.0693069306930682E-2</v>
+        <v>3.9026402640264059E-2</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.35">
@@ -6592,7 +6619,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>56</v>
@@ -6784,7 +6811,7 @@
     </row>
     <row r="54" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>56</v>
@@ -6799,7 +6826,7 @@
         <v>1.5780092592592593E-3</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="15"/>
@@ -6807,7 +6834,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>56</v>
@@ -6822,7 +6849,7 @@
         <v>1.6296296296296295E-3</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P54" s="22">
         <f t="shared" si="13"/>
@@ -7168,7 +7195,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>56</v>
@@ -7183,17 +7210,15 @@
         <v>1.3480324074074074E-3</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="15"/>
         <v>116.47</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="H58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>56</v>
@@ -7247,7 +7272,7 @@
       </c>
       <c r="Z58" s="8" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8" t="b">
         <f t="shared" si="8"/>
@@ -7259,7 +7284,7 @@
       </c>
       <c r="AC58" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="18">
         <f t="shared" si="10"/>
@@ -7364,7 +7389,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>57</v>
@@ -7556,7 +7581,7 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>57</v>
@@ -7579,7 +7604,7 @@
       </c>
       <c r="H62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>57</v>
@@ -7940,7 +7965,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>57</v>
@@ -7963,7 +7988,7 @@
       </c>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>57</v>
@@ -8324,7 +8349,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>58</v>
@@ -8347,7 +8372,7 @@
       </c>
       <c r="H70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>58</v>
@@ -8420,7 +8445,7 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>58</v>
@@ -8443,7 +8468,7 @@
       </c>
       <c r="H71" s="9"/>
       <c r="J71" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>58</v>
@@ -8516,7 +8541,7 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>58</v>
@@ -8539,7 +8564,7 @@
       </c>
       <c r="H72" s="9"/>
       <c r="J72" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>58</v>
@@ -8612,7 +8637,7 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>58</v>
@@ -8627,7 +8652,7 @@
         <v>1.2178240740740741E-3</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="25"/>
@@ -8635,7 +8660,7 @@
       </c>
       <c r="H73" s="9"/>
       <c r="J73" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>58</v>
@@ -8650,7 +8675,7 @@
         <v>1.2178240740740741E-3</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P73" s="22">
         <f t="shared" si="13"/>
@@ -8708,7 +8733,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>58</v>
@@ -8731,7 +8756,7 @@
       </c>
       <c r="H74" s="8"/>
       <c r="J74" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>58</v>
@@ -8897,7 +8922,7 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>59</v>
@@ -9083,7 +9108,7 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>59</v>
@@ -9106,7 +9131,7 @@
       </c>
       <c r="H78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>59</v>
@@ -9455,7 +9480,7 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>59</v>
@@ -9478,7 +9503,7 @@
       </c>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>59</v>
@@ -9740,7 +9765,7 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>60</v>
@@ -9932,7 +9957,7 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>60</v>
@@ -9947,7 +9972,7 @@
         <v>6.6956018518518515E-4</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G87" s="10">
         <f t="shared" si="25"/>
@@ -9955,7 +9980,7 @@
       </c>
       <c r="H87" s="9"/>
       <c r="J87" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>60</v>
@@ -10028,7 +10053,7 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>60</v>
@@ -10043,7 +10068,7 @@
         <v>9.7581018518518514E-4</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G88" s="10">
         <f t="shared" si="25"/>
@@ -10403,7 +10428,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>61</v>
@@ -10418,7 +10443,7 @@
         <v>1.715162037037037E-3</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G92" s="10">
         <f t="shared" si="25"/>
@@ -10426,7 +10451,7 @@
       </c>
       <c r="H92" s="9"/>
       <c r="J92" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>61</v>
@@ -10441,7 +10466,7 @@
         <v>1.715162037037037E-3</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P92" s="22">
         <f t="shared" si="37"/>
@@ -10496,7 +10521,7 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>61</v>
@@ -10511,7 +10536,7 @@
         <v>8.3854166666666669E-4</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G93" s="10">
         <f t="shared" si="25"/>
@@ -10519,7 +10544,7 @@
       </c>
       <c r="H93" s="9"/>
       <c r="J93" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>61</v>
@@ -10534,7 +10559,7 @@
         <v>8.3854166666666669E-4</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P93" s="22">
         <f t="shared" si="37"/>
@@ -10589,7 +10614,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>61</v>
@@ -10612,7 +10637,7 @@
       </c>
       <c r="H94" s="9"/>
       <c r="J94" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>61</v>
@@ -10838,168 +10863,168 @@
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A94">
-    <cfRule type="expression" dxfId="59" priority="7">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>A3="geschätzt"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>A3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="57" priority="5">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>A59=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>A59="geschätzt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>A61=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>A61="geschätzt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>A81=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>A81="geschätzt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H94">
-    <cfRule type="expression" dxfId="51" priority="11">
+    <cfRule type="expression" dxfId="52" priority="11">
       <formula>S3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34 F46">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>X34&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="49" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>IF($C3&lt;&gt;"w",$C3&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>IF($C7&lt;&gt;"w",$C7&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="47" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>IF($C14&lt;&gt;"w",$C14&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>IF($C18&lt;&gt;"w",$C18&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="46" priority="40">
       <formula>IF($C22&lt;&gt;"w",$C22&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="44" priority="38">
+    <cfRule type="expression" dxfId="45" priority="38">
       <formula>IF($C26&lt;&gt;"w",$C26&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>IF($C30&lt;&gt;"w",$C30&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>IF($C38&lt;&gt;"w",$C38&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>IF($C42&lt;&gt;"w",$C42&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="40" priority="30">
+    <cfRule type="expression" dxfId="41" priority="30">
       <formula>IF($C50&lt;&gt;"w",$C50&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>IF($C54&lt;&gt;"w",$C54&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>IF($C58&lt;&gt;"w",$C58&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>IF($C62&lt;&gt;"w",$C62&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>IF($C66&lt;&gt;"w",$C66&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="expression" dxfId="35" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>IF($C70&lt;&gt;"w",$C70&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>IF($C74&lt;&gt;"w",$C74&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="expression" dxfId="33" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>IF($C78&lt;&gt;"w",$C78&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>IF($C82&lt;&gt;"w",$C82&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J94">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>J3=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="31" priority="51">
       <formula>J3="geschätzt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:Q94 A3:G3 A4:H6 A7:G7 A8:H13 A14:G14 A15:H17 A18:G18 A19:H21 A22:G22 A23:H25 A26:G26 A27:H29 A30:G30 A31:H37 A38:G38 A39:H41 A42:G42 A43:H49 A50:G50 A51:H53 A54:G54 A55:H57 A58:G58 A59:H61 A62:G62 A63:H65 A66:G66 A67:H69 A70:G70 A71:H73 A74:G74 A75:H77 A78:G78 A79:H81 A82:G82 A83:H94 A2:H2">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>IF($L2&lt;&gt;"w",$L2&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:AC94">
-    <cfRule type="expression" dxfId="28" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="67" stopIfTrue="1">
       <formula>IF(S3="",FALSE,S3&lt;&gt;TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC94">
-    <cfRule type="expression" dxfId="27" priority="63">
+    <cfRule type="expression" dxfId="28" priority="63">
       <formula>IF(AB3=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD94">
-    <cfRule type="cellIs" dxfId="26" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="65" operator="lessThan">
       <formula>-0.000000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="66" operator="between">
       <formula>-0.000000000001</formula>
       <formula>0.000000000001</formula>
     </cfRule>
@@ -11007,9 +11032,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk für 2024
-Stand 18.12.2023</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L&amp;KFF0000Änderungen gegenüber 2023 sind rot markiert&amp;K01+000
+    <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk für 2025
+Stand 13.12.2024</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;KFF0000Änderungen gegenüber 2024 sind rot markiert&amp;K01+000
 &amp;F &amp;A - &amp;D&amp;C
 rettungssport@dlrg.de&amp;R
 Seite &amp;P/&amp;N </oddFooter>
@@ -11028,9 +11053,9 @@
   <dimension ref="A1:AE144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -11070,7 +11095,7 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -11080,7 +11105,7 @@
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="J1" s="49" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
@@ -11550,7 +11575,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>38</v>
@@ -11565,7 +11590,7 @@
         <v>3.7349537037037039E-4</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="22">
         <f t="shared" si="4"/>
@@ -11573,7 +11598,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>38</v>
@@ -11588,7 +11613,7 @@
         <v>3.7349537037037039E-4</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="5"/>
@@ -12015,7 +12040,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>39</v>
@@ -12030,7 +12055,7 @@
         <v>6.9618055555555557E-4</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="4"/>
@@ -12038,7 +12063,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>39</v>
@@ -12053,7 +12078,7 @@
         <v>6.9618055555555557E-4</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P12" s="22">
         <f t="shared" si="5"/>
@@ -12108,7 +12133,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>39</v>
@@ -12123,7 +12148,7 @@
         <v>3.9733796296296294E-4</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="4"/>
@@ -12131,7 +12156,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>39</v>
@@ -12146,7 +12171,7 @@
         <v>3.9733796296296294E-4</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P13" s="22">
         <f t="shared" si="5"/>
@@ -12855,7 +12880,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>40</v>
@@ -12867,14 +12892,14 @@
         <v>34</v>
       </c>
       <c r="E21" s="23">
-        <v>1.433449074074074E-3</v>
+        <v>1.3666666666666666E-3</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="4"/>
-        <v>123.85</v>
+        <v>118.07999999999998</v>
       </c>
       <c r="H21" s="8"/>
       <c r="J21" s="8" t="s">
@@ -12902,7 +12927,7 @@
       <c r="Q21" s="8"/>
       <c r="S21" s="8" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="b">
         <f t="shared" si="9"/>
@@ -12918,15 +12943,15 @@
       </c>
       <c r="W21" s="8" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="8" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="8" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="8" t="b">
         <f t="shared" si="15"/>
@@ -12938,18 +12963,18 @@
       </c>
       <c r="AB21" s="8" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="AE21" s="35"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>223</v>
+      <c r="A22" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>40</v>
@@ -12961,18 +12986,18 @@
         <v>62</v>
       </c>
       <c r="E22" s="23">
-        <v>3.6064814814814813E-4</v>
+        <v>3.3518518518518522E-4</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="4"/>
-        <v>31.16</v>
+        <v>28.96</v>
       </c>
       <c r="H22" s="8"/>
       <c r="J22" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>40</v>
@@ -12987,7 +13012,7 @@
         <v>3.6064814814814813E-4</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="5"/>
@@ -12996,7 +13021,7 @@
       <c r="Q22" s="8"/>
       <c r="S22" s="8" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8" t="b">
         <f t="shared" si="9"/>
@@ -13012,15 +13037,15 @@
       </c>
       <c r="W22" s="8" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="8" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="8" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="8" t="b">
         <f t="shared" si="15"/>
@@ -13032,7 +13057,7 @@
       </c>
       <c r="AB22" s="8" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="8" t="b">
         <f>IF(E22&gt;E16,FALSE,IF(H22=B16,E22=E16,OR(H22="",H22="Referenzwert")))</f>
@@ -13040,12 +13065,12 @@
       </c>
       <c r="AD22" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>7.0599999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>40</v>
@@ -13060,7 +13085,7 @@
         <v>5.6747685185185189E-4</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="4"/>
@@ -13068,7 +13093,7 @@
       </c>
       <c r="H23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>40</v>
@@ -13083,7 +13108,7 @@
         <v>5.6747685185185189E-4</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="5"/>
@@ -13138,7 +13163,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>40</v>
@@ -13150,18 +13175,18 @@
         <v>35</v>
       </c>
       <c r="E24" s="23">
-        <v>7.5671296296296294E-4</v>
+        <v>7.3993055555555552E-4</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="4"/>
-        <v>65.38</v>
+        <v>63.930000000000007</v>
       </c>
       <c r="H24" s="8"/>
       <c r="J24" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>40</v>
@@ -13176,7 +13201,7 @@
         <v>7.5671296296296294E-4</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P24" s="22">
         <f t="shared" si="5"/>
@@ -13185,7 +13210,7 @@
       <c r="Q24" s="8"/>
       <c r="S24" s="8" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="b">
         <f t="shared" si="9"/>
@@ -13201,15 +13226,15 @@
       </c>
       <c r="W24" s="8" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="8" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="8" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="8" t="b">
         <f t="shared" si="15"/>
@@ -13221,18 +13246,18 @@
       </c>
       <c r="AB24" s="8" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="27"/>
       <c r="AD24" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>40</v>
@@ -13247,7 +13272,7 @@
         <v>6.4710648148148147E-4</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="4"/>
@@ -13255,7 +13280,7 @@
       </c>
       <c r="H25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>40</v>
@@ -13270,7 +13295,7 @@
         <v>6.4710648148148147E-4</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P25" s="22">
         <f t="shared" si="5"/>
@@ -13326,7 +13351,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>40</v>
@@ -13338,18 +13363,18 @@
         <v>37</v>
       </c>
       <c r="E26" s="23">
-        <v>1.6254629629629629E-3</v>
+        <v>1.591087962962963E-3</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="4"/>
-        <v>140.44</v>
+        <v>137.47</v>
       </c>
       <c r="H26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>40</v>
@@ -13364,7 +13389,7 @@
         <v>1.6254629629629629E-3</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P26" s="22">
         <f t="shared" si="5"/>
@@ -13373,7 +13398,7 @@
       <c r="Q26" s="8"/>
       <c r="S26" s="8" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8" t="b">
         <f t="shared" si="9"/>
@@ -13389,15 +13414,15 @@
       </c>
       <c r="W26" s="8" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="8" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="8" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="8" t="b">
         <f t="shared" si="15"/>
@@ -13409,12 +13434,12 @@
       </c>
       <c r="AB26" s="8" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="27"/>
       <c r="AD26" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.35">
@@ -13505,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="8" t="b">
-        <f t="shared" ref="AC27:AC41" si="19">IF(E27&gt;E15,FALSE,IF(OR(H27=B15,AND(H15&lt;&gt;"",H27=H15)),E27=E15,OR(H15="",H15="Referenzwert")))</f>
+        <f t="shared" ref="AC27:AC44" si="19">IF(E27&gt;E15,FALSE,IF(E27&lt;E15,TRUE,IF(OR(H27=B15,AND(H15&lt;&gt;"",H27=H15)),E27=E15,OR(H15="",H15="Referenzwert"))))</f>
         <v>1</v>
       </c>
       <c r="AD27" s="18">
@@ -13515,7 +13540,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>66</v>
@@ -13530,7 +13555,7 @@
         <v>3.8692129629629629E-4</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
@@ -13538,7 +13563,7 @@
       </c>
       <c r="H28" s="9"/>
       <c r="J28" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>66</v>
@@ -13553,7 +13578,7 @@
         <v>3.8692129629629629E-4</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P28" s="22">
         <f t="shared" si="5"/>
@@ -13632,7 +13657,9 @@
         <f t="shared" si="4"/>
         <v>52.150000000000006</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J29" s="8" t="s">
         <v>163</v>
       </c>
@@ -13688,7 +13715,7 @@
       </c>
       <c r="Z29" s="8" t="b">
         <f t="shared" ref="Z29:Z98" si="27">EXACT(H29,Q29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="8" t="b">
         <f t="shared" si="6"/>
@@ -13709,7 +13736,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>66</v>
@@ -13724,7 +13751,7 @@
         <v>8.1539351851851857E-4</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
@@ -13732,7 +13759,7 @@
       </c>
       <c r="H30" s="9"/>
       <c r="J30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>66</v>
@@ -13747,7 +13774,7 @@
         <v>8.1539351851851857E-4</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P30" s="22">
         <f t="shared" si="5"/>
@@ -13805,7 +13832,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>66</v>
@@ -13820,7 +13847,7 @@
         <v>6.7349537037037042E-4</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
@@ -13828,7 +13855,7 @@
       </c>
       <c r="H31" s="9"/>
       <c r="J31" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>66</v>
@@ -13843,7 +13870,7 @@
         <v>6.7349537037037031E-4</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P31" s="22">
         <f t="shared" si="5"/>
@@ -13997,7 +14024,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>66</v>
@@ -14009,18 +14036,20 @@
         <v>34</v>
       </c>
       <c r="E33" s="23">
-        <v>1.3997685185185185E-3</v>
+        <v>1.3666666666666666E-3</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="4"/>
-        <v>120.93999999999997</v>
-      </c>
-      <c r="H33" s="9"/>
+        <v>118.07999999999998</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J33" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>66</v>
@@ -14035,7 +14064,7 @@
         <v>1.3997685185185185E-3</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P33" s="22">
         <f t="shared" si="5"/>
@@ -14044,7 +14073,7 @@
       <c r="Q33" s="8"/>
       <c r="S33" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="8" t="b">
         <f t="shared" si="21"/>
@@ -14060,19 +14089,19 @@
       </c>
       <c r="W33" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="8" t="b">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="8" t="b">
         <f t="shared" si="6"/>
@@ -14080,7 +14109,7 @@
       </c>
       <c r="AB33" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="8" t="b">
         <f t="shared" si="19"/>
@@ -14088,12 +14117,12 @@
       </c>
       <c r="AD33" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.3599999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>172</v>
+      <c r="A34" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>66</v>
@@ -14105,16 +14134,18 @@
         <v>62</v>
       </c>
       <c r="E34" s="23">
-        <v>3.4907407407407408E-4</v>
+        <v>3.3518518518518522E-4</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="4"/>
-        <v>30.159999999999997</v>
-      </c>
-      <c r="H34" s="9"/>
+        <v>28.96</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J34" s="8" t="s">
         <v>172</v>
       </c>
@@ -14140,7 +14171,7 @@
       <c r="Q34" s="8"/>
       <c r="S34" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="b">
         <f t="shared" si="21"/>
@@ -14156,19 +14187,19 @@
       </c>
       <c r="W34" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="8" t="b">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="8" t="b">
         <f t="shared" si="6"/>
@@ -14176,7 +14207,7 @@
       </c>
       <c r="AB34" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="8" t="b">
         <f t="shared" si="19"/>
@@ -14184,7 +14215,7 @@
       </c>
       <c r="AD34" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.9800000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.35">
@@ -14477,7 +14508,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>66</v>
@@ -14492,7 +14523,7 @@
         <v>1.5293981481481482E-3</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="4"/>
@@ -14500,7 +14531,7 @@
       </c>
       <c r="H38" s="9"/>
       <c r="J38" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>66</v>
@@ -14515,7 +14546,7 @@
         <v>1.5293981481481482E-3</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P38" s="22">
         <f t="shared" si="5"/>
@@ -14573,7 +14604,7 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>41</v>
@@ -14585,18 +14616,18 @@
         <v>34</v>
       </c>
       <c r="E39" s="23">
-        <v>1.4525462962962964E-3</v>
+        <v>1.4387731481481482E-3</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="4"/>
-        <v>125.5</v>
+        <v>124.31000000000002</v>
       </c>
       <c r="H39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>41</v>
@@ -14620,7 +14651,7 @@
       <c r="Q39" s="8"/>
       <c r="S39" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="8" t="b">
         <f t="shared" si="21"/>
@@ -14636,7 +14667,7 @@
       </c>
       <c r="W39" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="8" t="b">
         <f t="shared" si="25"/>
@@ -14644,7 +14675,7 @@
       </c>
       <c r="Y39" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="8" t="b">
         <f t="shared" si="27"/>
@@ -14656,7 +14687,7 @@
       </c>
       <c r="AB39" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="8" t="b">
         <f t="shared" si="19"/>
@@ -14664,12 +14695,12 @@
       </c>
       <c r="AD39" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>41</v>
@@ -14681,18 +14712,18 @@
         <v>62</v>
       </c>
       <c r="E40" s="23">
-        <v>3.7835648148148147E-4</v>
+        <v>3.7268518518518521E-4</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>132</v>
       </c>
       <c r="G40" s="22">
         <f t="shared" si="4"/>
-        <v>32.69</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>41</v>
@@ -14716,7 +14747,7 @@
       <c r="Q40" s="8"/>
       <c r="S40" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="b">
         <f t="shared" si="21"/>
@@ -14732,7 +14763,7 @@
       </c>
       <c r="W40" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="8" t="b">
         <f t="shared" si="25"/>
@@ -14740,7 +14771,7 @@
       </c>
       <c r="Y40" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="8" t="b">
         <f t="shared" si="27"/>
@@ -14752,7 +14783,7 @@
       </c>
       <c r="AB40" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="8" t="b">
         <f t="shared" si="19"/>
@@ -14760,12 +14791,12 @@
       </c>
       <c r="AD40" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>41</v>
@@ -14780,7 +14811,7 @@
         <v>5.859953703703704E-4</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G41" s="22">
         <f t="shared" si="4"/>
@@ -14788,7 +14819,7 @@
       </c>
       <c r="H41" s="9"/>
       <c r="J41" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>41</v>
@@ -14803,7 +14834,7 @@
         <v>5.859953703703704E-4</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P41" s="22">
         <f t="shared" si="5"/>
@@ -14861,7 +14892,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>41</v>
@@ -14873,18 +14904,18 @@
         <v>35</v>
       </c>
       <c r="E42" s="23">
-        <v>7.6932870370370371E-4</v>
+        <v>7.6099537037037032E-4</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>132</v>
       </c>
       <c r="G42" s="22">
         <f t="shared" si="4"/>
-        <v>66.470000000000013</v>
+        <v>65.75</v>
       </c>
       <c r="H42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>41</v>
@@ -14908,7 +14939,7 @@
       <c r="Q42" s="8"/>
       <c r="S42" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="b">
         <f t="shared" si="21"/>
@@ -14924,7 +14955,7 @@
       </c>
       <c r="W42" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="8" t="b">
         <f t="shared" si="25"/>
@@ -14932,7 +14963,7 @@
       </c>
       <c r="Y42" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="8" t="b">
         <f t="shared" si="27"/>
@@ -14944,20 +14975,20 @@
       </c>
       <c r="AB42" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="8" t="b">
-        <f t="shared" ref="AC42:AC50" si="28">IF(E42&gt;E30,FALSE,IF(OR(H42=B30,AND(H30&lt;&gt;"",H42=H30)),E42=E30,OR(H30="",H30="Referenzwert")))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AD42" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>41</v>
@@ -14969,18 +15000,18 @@
         <v>36</v>
       </c>
       <c r="E43" s="23">
-        <v>6.4930555555555553E-4</v>
+        <v>6.4606481481481481E-4</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="4"/>
-        <v>56.099999999999994</v>
+        <v>55.82</v>
       </c>
       <c r="H43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>41</v>
@@ -14995,7 +15026,7 @@
         <v>6.4930555555555553E-4</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P43" s="22">
         <f t="shared" si="5"/>
@@ -15004,7 +15035,7 @@
       <c r="Q43" s="8"/>
       <c r="S43" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" s="8" t="b">
         <f t="shared" si="21"/>
@@ -15020,7 +15051,7 @@
       </c>
       <c r="W43" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="8" t="b">
         <f t="shared" si="25"/>
@@ -15028,7 +15059,7 @@
       </c>
       <c r="Y43" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="8" t="b">
         <f t="shared" si="27"/>
@@ -15040,20 +15071,20 @@
       </c>
       <c r="AB43" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="8" t="b">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AD43" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>41</v>
@@ -15068,7 +15099,7 @@
         <v>1.6347222222222223E-3</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G44" s="22">
         <f t="shared" si="4"/>
@@ -15076,7 +15107,7 @@
       </c>
       <c r="H44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>41</v>
@@ -15091,7 +15122,7 @@
         <v>1.6347222222222223E-3</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P44" s="22">
         <f t="shared" si="5"/>
@@ -15139,7 +15170,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="8" t="b">
-        <f t="shared" si="28"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AD44" s="18">
@@ -15235,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="8" t="b">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AC45:AC50" si="28">IF(E45&gt;E33,FALSE,IF(E45&lt;E33,TRUE,IF(OR(H45=B33,AND(H33&lt;&gt;"",H45=H33)),E45=E33,OR(H33="",H33="Referenzwert"))))</f>
         <v>1</v>
       </c>
       <c r="AD45" s="18">
@@ -15821,7 +15852,7 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>42</v>
@@ -15846,7 +15877,7 @@
         <v>44</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>42</v>
@@ -16016,8 +16047,8 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>191</v>
+      <c r="A54" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>42</v>
@@ -16029,18 +16060,20 @@
         <v>36</v>
       </c>
       <c r="E54" s="23">
-        <v>7.6539351851851855E-4</v>
+        <v>7.5763888888888886E-4</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="G54" s="22">
         <f t="shared" si="4"/>
-        <v>66.13000000000001</v>
-      </c>
-      <c r="H54" s="8"/>
+        <v>65.459999999999994</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J54" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>42</v>
@@ -16055,7 +16088,7 @@
         <v>7.6539351851851855E-4</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P54" s="22">
         <f t="shared" si="5"/>
@@ -16064,7 +16097,7 @@
       <c r="Q54" s="8"/>
       <c r="S54" s="8" t="b">
         <f t="shared" ref="S54" si="29">EXACT(A54,J54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="8" t="b">
         <f t="shared" ref="T54" si="30">EXACT(B54,K54)</f>
@@ -16080,19 +16113,19 @@
       </c>
       <c r="W54" s="8" t="b">
         <f t="shared" ref="W54" si="33">EXACT(E54,N54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="8" t="b">
         <f t="shared" ref="X54" si="34">EXACT(F54,O54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="8" t="b">
         <f t="shared" ref="Y54" si="35">EXACT(G54,P54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="8" t="b">
         <f t="shared" ref="Z54" si="36">EXACT(H54,Q54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="8" t="b">
         <f t="shared" ref="AA54" si="37">IF(AND(T54,U54,V54),TRUE,FALSE)</f>
@@ -16100,15 +16133,15 @@
       </c>
       <c r="AB54" s="8" t="b">
         <f t="shared" ref="AB54" si="38">IF(AND(S54,W54,X54),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="8" t="b">
         <f t="shared" ref="AC54:AC82" si="39">IF(E54&gt;E62,FALSE,IF(E54=E62,H54=B62,OR(H54="",H54="Referenzwert")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.35">
@@ -16209,7 +16242,7 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>42</v>
@@ -16224,17 +16257,15 @@
         <v>3.4837962962962964E-4</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G56" s="22">
         <f t="shared" si="4"/>
         <v>30.1</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="H56" s="8"/>
       <c r="J56" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>42</v>
@@ -16249,7 +16280,7 @@
         <v>3.6157407407407405E-4</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P56" s="22">
         <f t="shared" si="5"/>
@@ -16288,7 +16319,7 @@
       </c>
       <c r="Z56" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="8" t="b">
         <f t="shared" si="6"/>
@@ -16300,7 +16331,7 @@
       </c>
       <c r="AC56" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="18">
         <f t="shared" si="18"/>
@@ -16309,7 +16340,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>42</v>
@@ -16324,7 +16355,7 @@
         <v>5.9502314814814813E-4</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="4"/>
@@ -16334,7 +16365,7 @@
         <v>43</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>42</v>
@@ -16349,7 +16380,7 @@
         <v>5.9502314814814813E-4</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P57" s="22">
         <f t="shared" si="5"/>
@@ -16409,7 +16440,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>42</v>
@@ -16421,20 +16452,20 @@
         <v>36</v>
       </c>
       <c r="E58" s="23">
-        <v>6.8078703703703704E-4</v>
+        <v>6.7870370370370372E-4</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G58" s="22">
         <f t="shared" si="4"/>
-        <v>58.819999999999993</v>
+        <v>58.639999999999993</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>43</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>42</v>
@@ -16449,7 +16480,7 @@
         <v>6.8078703703703704E-4</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P58" s="22">
         <f t="shared" si="5"/>
@@ -16460,7 +16491,7 @@
       </c>
       <c r="S58" s="8" t="b">
         <f t="shared" ref="S58" si="40">EXACT(A58,J58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="8" t="b">
         <f t="shared" ref="T58" si="41">EXACT(B58,K58)</f>
@@ -16476,15 +16507,15 @@
       </c>
       <c r="W58" s="8" t="b">
         <f t="shared" ref="W58" si="44">EXACT(E58,N58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="8" t="b">
         <f t="shared" ref="X58" si="45">EXACT(F58,O58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="8" t="b">
         <f t="shared" ref="Y58" si="46">EXACT(G58,P58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="8" t="b">
         <f t="shared" ref="Z58" si="47">EXACT(H58,Q58)</f>
@@ -16496,15 +16527,15 @@
       </c>
       <c r="AB58" s="8" t="b">
         <f t="shared" ref="AB58" si="49">IF(AND(S58,W58,X58),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.35">
@@ -16605,7 +16636,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>43</v>
@@ -16630,7 +16661,7 @@
         <v>44</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>43</v>
@@ -16705,7 +16736,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>43</v>
@@ -16717,16 +16748,18 @@
         <v>33</v>
       </c>
       <c r="E61" s="21">
-        <v>7.4548611111111115E-4</v>
+        <v>7.2962962962962966E-4</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G61" s="22">
         <f t="shared" si="4"/>
-        <v>64.410000000000011</v>
-      </c>
-      <c r="H61" s="8"/>
+        <v>63.040000000000013</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J61" s="8" t="s">
         <v>105</v>
       </c>
@@ -16752,7 +16785,7 @@
       <c r="Q61" s="8"/>
       <c r="S61" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="8" t="b">
         <f t="shared" si="21"/>
@@ -16768,19 +16801,19 @@
       </c>
       <c r="W61" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="8" t="b">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="8" t="b">
         <f t="shared" si="6"/>
@@ -16788,20 +16821,20 @@
       </c>
       <c r="AB61" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.1299999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>43</v>
@@ -16813,18 +16846,20 @@
         <v>36</v>
       </c>
       <c r="E62" s="23">
-        <v>7.6840277777777779E-4</v>
+        <v>7.5763888888888886E-4</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="G62" s="22">
         <f t="shared" si="4"/>
-        <v>66.39</v>
-      </c>
-      <c r="H62" s="8"/>
+        <v>65.459999999999994</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J62" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>43</v>
@@ -16839,7 +16874,7 @@
         <v>7.6840277777777779E-4</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P62" s="22">
         <f t="shared" si="5"/>
@@ -16848,7 +16883,7 @@
       <c r="Q62" s="8"/>
       <c r="S62" s="8" t="b">
         <f t="shared" ref="S62" si="50">EXACT(A62,J62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="8" t="b">
         <f t="shared" ref="T62" si="51">EXACT(B62,K62)</f>
@@ -16864,19 +16899,19 @@
       </c>
       <c r="W62" s="8" t="b">
         <f t="shared" ref="W62" si="54">EXACT(E62,N62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" s="8" t="b">
         <f t="shared" ref="X62" si="55">EXACT(F62,O62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="8" t="b">
         <f t="shared" ref="Y62" si="56">EXACT(G62,P62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="8" t="b">
         <f t="shared" ref="Z62" si="57">EXACT(H62,Q62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="8" t="b">
         <f t="shared" ref="AA62" si="58">IF(AND(T62,U62,V62),TRUE,FALSE)</f>
@@ -16884,15 +16919,15 @@
       </c>
       <c r="AB62" s="8" t="b">
         <f t="shared" ref="AB62" si="59">IF(AND(S62,W62,X62),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16993,7 +17028,7 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>43</v>
@@ -17008,7 +17043,7 @@
         <v>3.6157407407407405E-4</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G64" s="22">
         <f t="shared" si="4"/>
@@ -17016,7 +17051,7 @@
       </c>
       <c r="H64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>43</v>
@@ -17031,7 +17066,7 @@
         <v>3.6157407407407405E-4</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P64" s="22">
         <f t="shared" si="5"/>
@@ -17089,7 +17124,7 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>43</v>
@@ -17104,7 +17139,7 @@
         <v>5.9502314814814813E-4</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G65" s="22">
         <f t="shared" si="4"/>
@@ -17112,7 +17147,7 @@
       </c>
       <c r="H65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>43</v>
@@ -17127,7 +17162,7 @@
         <v>5.9502314814814813E-4</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P65" s="22">
         <f t="shared" si="5"/>
@@ -17185,7 +17220,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>43</v>
@@ -17200,7 +17235,7 @@
         <v>6.7870370370370372E-4</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G66" s="22">
         <f t="shared" si="4"/>
@@ -17208,7 +17243,7 @@
       </c>
       <c r="H66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>43</v>
@@ -17223,7 +17258,7 @@
         <v>6.8078703703703704E-4</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P66" s="22">
         <f t="shared" si="5"/>
@@ -17281,7 +17316,7 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>44</v>
@@ -17304,7 +17339,7 @@
       </c>
       <c r="H67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>44</v>
@@ -17377,7 +17412,7 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>44</v>
@@ -17400,7 +17435,7 @@
       </c>
       <c r="H68" s="8"/>
       <c r="J68" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>44</v>
@@ -17473,7 +17508,7 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>44</v>
@@ -17494,9 +17529,7 @@
         <f t="shared" si="4"/>
         <v>63.040000000000013</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="H69" s="8"/>
       <c r="J69" s="8" t="s">
         <v>130</v>
       </c>
@@ -17552,7 +17585,7 @@
       </c>
       <c r="Z69" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69" s="8" t="b">
         <f t="shared" si="6"/>
@@ -17564,7 +17597,7 @@
       </c>
       <c r="AC69" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="18">
         <f t="shared" si="18"/>
@@ -17573,7 +17606,7 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>44</v>
@@ -17596,7 +17629,7 @@
       </c>
       <c r="H70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>44</v>
@@ -17865,7 +17898,7 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>44</v>
@@ -17888,7 +17921,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="J73" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>44</v>
@@ -17961,7 +17994,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>44</v>
@@ -17984,7 +18017,7 @@
       </c>
       <c r="H74" s="8"/>
       <c r="J74" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>44</v>
@@ -18249,7 +18282,7 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>45</v>
@@ -18261,16 +18294,18 @@
         <v>33</v>
       </c>
       <c r="E77" s="21">
-        <v>7.4918981481481484E-4</v>
+        <v>7.4837962962962966E-4</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>134</v>
       </c>
       <c r="G77" s="22">
         <f t="shared" si="4"/>
-        <v>64.73</v>
-      </c>
-      <c r="H77" s="8"/>
+        <v>64.660000000000011</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J77" s="8" t="s">
         <v>130</v>
       </c>
@@ -18296,7 +18331,7 @@
       <c r="Q77" s="8"/>
       <c r="S77" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T77" s="8" t="b">
         <f t="shared" si="21"/>
@@ -18312,7 +18347,7 @@
       </c>
       <c r="W77" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77" s="8" t="b">
         <f t="shared" si="25"/>
@@ -18320,11 +18355,11 @@
       </c>
       <c r="Y77" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="8" t="b">
         <f t="shared" si="6"/>
@@ -18332,20 +18367,20 @@
       </c>
       <c r="AB77" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="18">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>45</v>
@@ -18357,20 +18392,20 @@
         <v>36</v>
       </c>
       <c r="E78" s="23">
-        <v>8.6597222222222219E-4</v>
+        <v>8.3009259259259256E-4</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="G78" s="22">
         <f t="shared" si="4"/>
-        <v>74.820000000000007</v>
+        <v>71.72</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>46</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>45</v>
@@ -18385,7 +18420,7 @@
         <v>8.9120370370370373E-4</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P78" s="22">
         <f t="shared" si="70"/>
@@ -18436,11 +18471,11 @@
       </c>
       <c r="AC78" s="8" t="b">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="18">
         <f t="shared" si="18"/>
-        <v>2.8299999999999999E-2</v>
+        <v>6.8599999999999994E-2</v>
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.35">
@@ -18735,7 +18770,7 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>45</v>
@@ -18750,7 +18785,7 @@
         <v>7.0289351851851849E-4</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G82" s="22">
         <f t="shared" si="4"/>
@@ -18758,7 +18793,7 @@
       </c>
       <c r="H82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>45</v>
@@ -18773,7 +18808,7 @@
         <v>7.0289351851851849E-4</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P82" s="22">
         <f t="shared" si="70"/>
@@ -19023,7 +19058,7 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>46</v>
@@ -19046,7 +19081,7 @@
       </c>
       <c r="H85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>46</v>
@@ -19116,7 +19151,7 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>46</v>
@@ -19139,7 +19174,7 @@
       </c>
       <c r="H86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>46</v>
@@ -19154,7 +19189,7 @@
         <v>8.9120370370370373E-4</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P86" s="22">
         <f t="shared" si="70"/>
@@ -19209,7 +19244,7 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -19221,16 +19256,18 @@
         <v>32</v>
       </c>
       <c r="E87" s="21">
-        <v>7.1111111111111115E-4</v>
+        <v>7.0763888888888884E-4</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="G87" s="22">
         <f t="shared" si="101"/>
-        <v>61.44</v>
-      </c>
-      <c r="H87" s="8"/>
+        <v>61.139999999999993</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J87" s="8" t="s">
         <v>130</v>
       </c>
@@ -19256,7 +19293,7 @@
       <c r="Q87" s="8"/>
       <c r="S87" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T87" s="8" t="b">
         <f t="shared" si="21"/>
@@ -19272,19 +19309,19 @@
       </c>
       <c r="W87" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87" s="8" t="b">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA87" s="8" t="b">
         <f t="shared" si="6"/>
@@ -19292,20 +19329,20 @@
       </c>
       <c r="AB87" s="8" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC87" s="8" t="b">
         <f>IF(E87&gt;E94,FALSE,IF(H87=B94,E87=E94,OR(H87="",H87="Referenzwert")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD87" s="18">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>46</v>
@@ -19319,16 +19356,14 @@
       <c r="E88" s="21">
         <v>3.9120370370370372E-4</v>
       </c>
-      <c r="F88" s="42" t="s">
+      <c r="F88" s="20" t="s">
         <v>155</v>
       </c>
       <c r="G88" s="22">
         <f t="shared" si="101"/>
         <v>33.800000000000004</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="H88" s="8"/>
       <c r="J88" s="8" t="s">
         <v>152</v>
       </c>
@@ -19384,7 +19419,7 @@
       </c>
       <c r="Z88" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA88" s="8" t="b">
         <f t="shared" ref="AA88:AA138" si="124">IF(AND(T88,U88,V88),TRUE,FALSE)</f>
@@ -19396,7 +19431,7 @@
       </c>
       <c r="AC88" s="8" t="b">
         <f>IF(E88&gt;E95,FALSE,IF(H88=B95,E88=E95,OR(H88="",H88="Referenzwert")))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD88" s="18">
         <f t="shared" si="113"/>
@@ -19405,7 +19440,7 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>46</v>
@@ -19498,7 +19533,7 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>46</v>
@@ -19521,7 +19556,7 @@
       </c>
       <c r="H90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>46</v>
@@ -19536,7 +19571,7 @@
         <v>8.2569444444444444E-4</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P90" s="22">
         <f t="shared" si="70"/>
@@ -19591,7 +19626,7 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>47</v>
@@ -19606,7 +19641,7 @@
         <v>8.7418981481481484E-4</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G91" s="22">
         <f t="shared" si="101"/>
@@ -19614,7 +19649,7 @@
       </c>
       <c r="H91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>47</v>
@@ -19629,7 +19664,7 @@
         <v>8.7418981481481484E-4</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P91" s="22">
         <f t="shared" si="70"/>
@@ -19687,7 +19722,7 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>47</v>
@@ -19702,7 +19737,7 @@
         <v>5.0138888888888889E-4</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G92" s="22">
         <f t="shared" si="101"/>
@@ -19710,7 +19745,7 @@
       </c>
       <c r="H92" s="8"/>
       <c r="J92" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>47</v>
@@ -19725,7 +19760,7 @@
         <v>5.0138888888888889E-4</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P92" s="22">
         <f t="shared" si="70"/>
@@ -19883,7 +19918,7 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>47</v>
@@ -19895,16 +19930,18 @@
         <v>32</v>
       </c>
       <c r="E94" s="21">
-        <v>7.1180555555555559E-4</v>
+        <v>7.0763888888888884E-4</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="G94" s="22">
         <f t="shared" si="101"/>
-        <v>61.499999999999993</v>
-      </c>
-      <c r="H94" s="8"/>
+        <v>61.139999999999993</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="J94" s="8" t="s">
         <v>141</v>
       </c>
@@ -19930,7 +19967,7 @@
       <c r="Q94" s="8"/>
       <c r="S94" s="8" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" s="8" t="b">
         <f t="shared" si="21"/>
@@ -19946,19 +19983,19 @@
       </c>
       <c r="W94" s="8" t="b">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94" s="8" t="b">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="8" t="b">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="8" t="b">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="8" t="b">
         <f t="shared" si="124"/>
@@ -19966,15 +20003,15 @@
       </c>
       <c r="AB94" s="8" t="b">
         <f t="shared" si="125"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="8" t="b">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94" s="18">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.35">
@@ -20171,7 +20208,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>48</v>
@@ -20186,7 +20223,7 @@
         <v>8.9907407407407406E-4</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G97" s="22">
         <f t="shared" si="101"/>
@@ -20194,7 +20231,7 @@
       </c>
       <c r="H97" s="8"/>
       <c r="J97" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>48</v>
@@ -20209,7 +20246,7 @@
         <v>8.9907407407407406E-4</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P97" s="22">
         <f t="shared" si="70"/>
@@ -20450,7 +20487,7 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>48</v>
@@ -20465,7 +20502,7 @@
         <v>7.0763888888888884E-4</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" si="101"/>
@@ -20473,7 +20510,7 @@
       </c>
       <c r="H100" s="8"/>
       <c r="J100" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>48</v>
@@ -20543,7 +20580,7 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>48</v>
@@ -20566,7 +20603,7 @@
       </c>
       <c r="H101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>48</v>
@@ -20729,7 +20766,7 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>49</v>
@@ -20752,7 +20789,7 @@
       </c>
       <c r="H103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>49</v>
@@ -20767,7 +20804,7 @@
         <v>3.9942129629629632E-4</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P103" s="22">
         <f t="shared" si="70"/>
@@ -20921,7 +20958,7 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>49</v>
@@ -21305,7 +21342,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>50</v>
@@ -21328,7 +21365,7 @@
       </c>
       <c r="H109" s="8"/>
       <c r="J109" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>50</v>
@@ -21401,7 +21438,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>50</v>
@@ -21424,7 +21461,7 @@
       </c>
       <c r="H110" s="8"/>
       <c r="J110" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>50</v>
@@ -21497,7 +21534,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>50</v>
@@ -21512,7 +21549,7 @@
         <v>3.1631944444444443E-4</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G111" s="22">
         <f t="shared" si="101"/>
@@ -21520,7 +21557,7 @@
       </c>
       <c r="H111" s="8"/>
       <c r="J111" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>50</v>
@@ -21590,7 +21627,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>50</v>
@@ -21613,7 +21650,7 @@
       </c>
       <c r="H112" s="8"/>
       <c r="J112" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>50</v>
@@ -21686,7 +21723,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>50</v>
@@ -21709,7 +21746,7 @@
       </c>
       <c r="H113" s="8"/>
       <c r="J113" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K113" s="8" t="s">
         <v>50</v>
@@ -21782,7 +21819,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>50</v>
@@ -21805,7 +21842,7 @@
       </c>
       <c r="H114" s="8"/>
       <c r="J114" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K114" s="8" t="s">
         <v>50</v>
@@ -22259,7 +22296,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>51</v>
@@ -22282,7 +22319,7 @@
       </c>
       <c r="H119" s="8"/>
       <c r="J119" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>51</v>
@@ -23219,7 +23256,7 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>53</v>
@@ -23242,7 +23279,7 @@
       </c>
       <c r="H129" s="8"/>
       <c r="J129" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K129" s="8" t="s">
         <v>53</v>
@@ -23603,7 +23640,7 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>54</v>
@@ -23626,7 +23663,7 @@
       </c>
       <c r="H133" s="8"/>
       <c r="J133" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K133" s="8" t="s">
         <v>54</v>
@@ -23699,7 +23736,7 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>54</v>
@@ -23722,7 +23759,7 @@
       </c>
       <c r="H134" s="8"/>
       <c r="J134" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>54</v>
@@ -23891,7 +23928,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>54</v>
@@ -23914,7 +23951,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="J136" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136" s="8" t="s">
         <v>54</v>
@@ -23987,7 +24024,7 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>54</v>
@@ -24010,7 +24047,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="J137" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K137" s="8" t="s">
         <v>54</v>
@@ -24083,7 +24120,7 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>54</v>
@@ -24106,7 +24143,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="J138" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K138" s="8" t="s">
         <v>54</v>
@@ -24742,110 +24779,115 @@
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A144 J3:J144">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>A3=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>A3="geschätzt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A30">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>IF($C27&lt;&gt;"w",$C27&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="20" priority="58">
+    <cfRule type="expression" dxfId="21" priority="59">
       <formula>IF($L31&lt;&gt;"w",$L31&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A42">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>IF($C39&lt;&gt;"w",$C39&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A50">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>S39&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="17" priority="54">
+    <cfRule type="expression" dxfId="18" priority="55">
       <formula>IF($L43&lt;&gt;"w",$L43&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A50">
-    <cfRule type="expression" dxfId="16" priority="56">
+    <cfRule type="expression" dxfId="17" priority="57">
       <formula>IF($C44&lt;&gt;"w",$C44&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>S58&lt;&gt;TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>IF($C58&lt;&gt;"w",$C58&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H26">
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>IF($C1&lt;&gt;"w",$C1&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H38">
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>S3&lt;&gt;TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:H38">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="12" priority="28">
       <formula>IF($C32&lt;&gt;"w",$C32&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:H144">
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>S51&lt;&gt;TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="25">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>IF($C51&lt;&gt;"w",$C51&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:H31">
-    <cfRule type="expression" dxfId="8" priority="35">
+    <cfRule type="expression" dxfId="9" priority="36">
       <formula>IF($C27&lt;&gt;"w",$C27&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:H50">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>T39&lt;&gt;TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>IF($C39&lt;&gt;"w",$C39&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>IF($C33&lt;&gt;"w",$C33&lt;&gt;"",FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:Q144">
-    <cfRule type="expression" dxfId="5" priority="46">
+    <cfRule type="expression" dxfId="5" priority="47">
       <formula>IF($L2&lt;&gt;"w",$L2&lt;&gt;"",FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:AC144">
-    <cfRule type="expression" dxfId="4" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="69" stopIfTrue="1">
       <formula>IF(S3="",FALSE,S3&lt;&gt;TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AC144">
-    <cfRule type="expression" dxfId="3" priority="61">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>IF(AB3=TRUE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD144">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>-0.000000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
       <formula>-0.000000000001</formula>
       <formula>0.000000000001</formula>
     </cfRule>
@@ -24853,9 +24895,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk für 2024
-Stand 18.12.2023</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L&amp;KFF0000Änderungen gegenüber 2023 sind rot markiert&amp;K01+000
+    <oddHeader>&amp;C&amp;14Rekorde Nationales Regelwerk für 2025
+Stand 13.12.2024</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;KFF0000Änderungen gegenüber 2024 sind rot markiert&amp;K01+000
 &amp;F &amp;A - &amp;D&amp;C
 rettungssport@dlrg.de&amp;R
 Seite &amp;P/&amp;N </oddFooter>
@@ -24868,7 +24910,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{99FFB048-EA54-4CB8-BEE8-361F0B1D9CB3}">
+          <x14:cfRule type="iconSet" priority="4" id="{99FFB048-EA54-4CB8-BEE8-361F0B1D9CB3}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -24887,7 +24929,7 @@
           <xm:sqref>AD37:AD144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="73" id="{F803CE8B-2BBA-40D9-8EDD-180575F12E97}">
+          <x14:cfRule type="iconSet" priority="74" id="{F803CE8B-2BBA-40D9-8EDD-180575F12E97}">
             <x14:iconSet iconSet="3Symbols" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -24923,17 +24965,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001F365DFE8D09C24ABDD096489E131F69" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="149ee60248988822a850daaee86c69c2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0bf1e29-d34f-4ff0-bdf5-ef6285aec9e8" xmlns:ns3="d611cfb9-4af4-4b74-b16b-fd0cdea4717b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b52376204584d8993202ffaab7bfc566" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001F365DFE8D09C24ABDD096489E131F69" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b87e139ae649e1464ed3d66b73433eee">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0bf1e29-d34f-4ff0-bdf5-ef6285aec9e8" xmlns:ns3="d611cfb9-4af4-4b74-b16b-fd0cdea4717b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc3dffcd458701b70f52c9124b6cfe2" ns2:_="" ns3:_="">
     <xsd:import namespace="d0bf1e29-d34f-4ff0-bdf5-ef6285aec9e8"/>
     <xsd:import namespace="d611cfb9-4af4-4b74-b16b-fd0cdea4717b"/>
     <xsd:element name="properties">
@@ -24953,6 +24986,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25005,6 +25039,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -25148,6 +25187,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A8BFEC-01A9-4E2A-828A-D8350C0E6EDD}">
   <ds:schemaRefs>
@@ -25160,15 +25208,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173F7653-6671-4F79-9F8F-5C8E65DEC77D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57F5420-C6B2-43C6-A9E1-694D53DFD19F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D096A9E2-B0FB-4EB1-B206-60773DEAA63C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -25184,4 +25224,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{173F7653-6671-4F79-9F8F-5C8E65DEC77D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>